--- a/absensi.xlsx
+++ b/absensi.xlsx
@@ -453,34 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yusuf Abdillah</t>
+          <t>M. Yusuf Abdillah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:44:43</t>
+          <t>19:33:37</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kukuh</t>
+          <t>M. Yusuf Abdillah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:13:26</t>
+          <t>19:39:45</t>
         </is>
       </c>
     </row>
